--- a/resources/reportTemplates/localStatistics.xlsx
+++ b/resources/reportTemplates/localStatistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="12060" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>{d.queryFormat}</t>
   </si>
   <si>
-    <t>频次：{d.span}度，单位：万元，家，人。</t>
+    <t>频次：月度，单位：万元，家，人。</t>
   </si>
   <si>
     <t>序号</t>
@@ -72,7 +72,7 @@
     <t>业务经营</t>
   </si>
   <si>
-    <t>本{d.span}累计业务总额</t>
+    <t>本年累计业务总额</t>
   </si>
   <si>
     <t>{d.summary.total_business_amount}</t>
@@ -84,7 +84,7 @@
     <t>{d.summary.agri_small_business_amount}</t>
   </si>
   <si>
-    <t>本{d.span}累计服务客户数</t>
+    <t>本年累计服务客户数</t>
   </si>
   <si>
     <t>{d.summary.served_customer_count}</t>
@@ -117,19 +117,19 @@
     <t>上缴税收</t>
   </si>
   <si>
-    <t xml:space="preserve">注：1.融资借贷类地方金融组织包括小额贷款公司、典当行、融资租赁公司、商业保理公司、民间融资服务企业、农民资金互助组织等六类。                                                                                                                                                     2.本表可按月度、季度、年度统计；其中，农民资金互助组织采集季报数据。                                                                                                                              </t>
+    <t xml:space="preserve">注：1.融资借贷类地方金融组织包括小额贷款公司、典当行、融资租赁公司、商业保理公司、民间融资服务企业、农民资金互助组织等六类。                                                                                                                                                     2.本表按当年年初至输入月份的累计口径统计；其中，农民资金互助组织采集季报数据。                                                                                                                              </t>
   </si>
   <si>
     <t>地方金融组织融资借贷类（商业保理）统计表</t>
   </si>
   <si>
-    <t>频次：{d.span}度，单位：万元、家、笔、%。</t>
+    <t>频次：月度，单位：万元、家、笔、%。</t>
   </si>
   <si>
     <t>机构数量</t>
   </si>
   <si>
-    <t>本{d.span}累计融资保理业务总额</t>
+    <t>本年累计融资保理业务总额</t>
   </si>
   <si>
     <t>{d.factoring.financing_factoring_business_amount}</t>
@@ -138,7 +138,7 @@
     <t>{d.factoring.agri_small_factoring_business_amount}</t>
   </si>
   <si>
-    <t>本{d.span}累计保理合同笔数</t>
+    <t>本年累计保理合同笔数</t>
   </si>
   <si>
     <t>{d.factoring.factoring_contract_count}</t>
@@ -1622,8 +1622,8 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1896,8 +1896,8 @@
   <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" outlineLevelCol="4"/>
